--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169BCE4-4ED3-4633-90CE-A4D243EF4D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26355" windowHeight="10920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>11초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화재감식기사 기출풀이 3회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상문제 기출까지 3회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전술 개정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,11 +145,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>위험물기능장 + 소방시설관리사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방기술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월
++ 발목, 무릎 재활
++ 생각보다 재활이 금방됨 8월중순 복귀 가능
++ 구기종목시 무리한 플레이 하지말고 정말 이지한 경우만 폭발력 사용
++ATG 프로그램 으로 하체전면 하체후면 상체 프로그램 돌리고 / 러닝 + 축구농구연습 / animal flow 연마
+9월
++ 역도 일주일에 1번 가능하게 몸만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4말 시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 되면 걍 화감기는 메리트가 없음 끝나고 다음년도에 딴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니면 꾸준히 공부하면서 조금씩보고 시험 봐서 따던하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8~10월
-+ 행정법 기초
-+ 화재감식기사  실기 합격
++ 행정법 기초(이론, 기출 3회독 이상)
++ 화재감식기사  실기 -&gt; 여행으로 취소됨 3월로 이전
 11월 ~2월 
-+ 위험물&amp;소방기본법 정리
++ 위험물&amp;소방기본법(이론, 기출 3회독 이상)
 + 행정법 기출 회독수 10회독 이상
 3월~5월
 + 전술 개정본으로 정리
@@ -158,39 +208,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">8월
-+ 발목, 무릎 재활
-9월
-+ 구기종목 무리 안하고 슬슬 플레이
-+ 역도동호회 무리안하고 슬슬 플레이
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험물기능장 + 소방시설관리사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방기술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33살</t>
+    <t>승진시험 계산기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 75문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무평점 60점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력평점 25점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육훈련성적 15점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가점평정 5점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6점차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만점자랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15점 다따야함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황실1년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황실 2년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2점점도 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대략 10점차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10문제 더맞아야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개정도 틀리니까 보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개 맞아야 한다는게 맞음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -467,55 +564,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +630,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406255</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="0"/>
+          <a:ext cx="7111855" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,18 +942,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,17 +964,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18">
-      <c r="G3" s="28">
+      <c r="G3" s="14">
         <v>2024</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>2025</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -877,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -893,9 +1045,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
@@ -908,13 +1062,13 @@
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -954,7 +1108,7 @@
         <v>2026</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -997,7 +1151,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1039,13 +1193,11 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1060,9 +1212,7 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1079,10 +1229,10 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1131,22 +1281,22 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" s="18" customFormat="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+    <row r="18" spans="2:16" s="13" customFormat="1">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="8" t="s">
@@ -1454,258 +1604,268 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="G37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
+      <c r="B37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="G37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="24"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="27"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1719,4 +1879,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870491BA-8FA2-4868-98C7-2DF65D85642F}">
+  <dimension ref="A3:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>43.6</v>
+      </c>
+      <c r="J6">
+        <f>43-37</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="I11">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>35.6</v>
+      </c>
+      <c r="L13">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="I15">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169BCE4-4ED3-4633-90CE-A4D243EF4D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BEB20C-62FA-4637-BF6C-7A20A78232F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId2"/>
+    <sheet name="계획표" sheetId="1" r:id="rId1"/>
+    <sheet name="일주일 운동" sheetId="3" r:id="rId2"/>
+    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>11초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,34 +166,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8월
-+ 발목, 무릎 재활
-+ 생각보다 재활이 금방됨 8월중순 복귀 가능
-+ 구기종목시 무리한 플레이 하지말고 정말 이지한 경우만 폭발력 사용
-+ATG 프로그램 으로 하체전면 하체후면 상체 프로그램 돌리고 / 러닝 + 축구농구연습 / animal flow 연마
-9월
-+ 역도 일주일에 1번 가능하게 몸만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4말 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이렇게 되면 걍 화감기는 메리트가 없음 끝나고 다음년도에 딴다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니면 꾸준히 공부하면서 조금씩보고 시험 봐서 따던하기</t>
+    <t>승진시험 계산기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 75문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무평점 60점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력평점 25점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육훈련성적 15점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가점평정 5점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6점차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만점자랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15점 다따야함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황실1년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황실 2년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2점점도 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대략 10점차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10문제 더맞아야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개정도 틀리니까 보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개 맞아야 한다는게 맞음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8~10월
 + 행정법 기초(이론, 기출 3회독 이상)
-+ 화재감식기사  실기 -&gt; 여행으로 취소됨 3월로 이전
++ 화재감식기사  실기 -&gt; 여행으로 취소됨 워드로 대체
++ 행정법 기출문제 1회독 여행가기전까지 완성하고 가자
 11월 ~2월 
++ 한국실용글쓰기 770점 11월 초중순 
++ 행정법 기출 회독수 10회독 이상
 + 위험물&amp;소방기본법(이론, 기출 3회독 이상)
-+ 행정법 기출 회독수 10회독 이상
 3월~5월
 + 전술 개정본으로 정리
 + 위험물&amp;소방기본법 회독 10회독 이상
@@ -208,79 +269,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승진시험 계산기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제 75문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무평점 60점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력평점 25점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육훈련성적 15점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가점평정 5점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6점차이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만점자랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">15점 다따야함 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상황실1년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상황실 2년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2점점도 줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점차이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대략 10점차이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10문제 더맞아야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15개정도 틀리니까 보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5개 맞아야 한다는게 맞음</t>
+    <t>8월
++ 발목, 무릎 재활
++ 생각보다 재활이 금방됨 8월중순 복귀 가능
++ 구기종목시 무리한 플레이 하지말고 정말 이지한 경우만 폭발력 사용
++ATG 프로그램 으로 하체전면 하체후면 상체 프로그램 돌리고 / 러닝 + 축구농구연습 / animal flow 연마
+9월
++ 달리기 위주 농구게임하면 쉬어야 함. 러닝위주로 체지방 빼면서 기능성 몸만들기로 계속 준비하자 10월 농구대회까지 기능성 맨몸운동 + 러닝
+10월~11월 초 여행 -&gt; 몸 푹 쉬기
+11월 5일부터 -&gt; ATG pro 루틴 + 빅머슬7 + 러닝
+12월 역도 동호회 일주일에 1번씩 실시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>ATG 전면 하체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATG 후면 하체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATG 상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATG Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATG-Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞쪽 다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backward Sled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 25rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHL Calf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOT Calf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poliquin Step Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom 1/4 split squat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 20rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full sqaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5set 5rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optional KOT sqaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 12rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rverse Nordic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Couch Stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Pancake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤쪽다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Sled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100m </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hip Flexors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 20rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 15rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 10rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seated Goodmorning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full-stretch RDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4set 8rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nordic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 5rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jefferson Curl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piriformis Stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">forward Backward sled </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5sec Eccentric Trap-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band Pullapart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Soulder Press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 8rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dip or PU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chin or One arm pull down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 12rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smith Curl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +576,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +629,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -521,13 +782,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,9 +916,76 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:R64"/>
+  <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1048,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1605,13 +1973,13 @@
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
       <c r="B37" s="15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="G37" s="15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -1856,16 +2224,6 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="23"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1882,10 +2240,571 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8795FD5C-62A9-449C-AA3E-5A3B56F56BC4}">
+  <dimension ref="A4:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="30">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="30">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="30">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="K7" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="30">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="K9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="30">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="K10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="K11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="30">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="K12" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="30">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="K13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="K14" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="30">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="K15" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="30">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="K16" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="K17" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="30">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="K18" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="47"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="30">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="K19" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="K20" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="30">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="30">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="K22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="K23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="30">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="K24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="30">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="K25" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="K26" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="30">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="K27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="30">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="K28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="30">
+        <v>1</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="K29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="K30" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="K31" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12">
+      <c r="K36" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12">
+      <c r="K37" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12">
+      <c r="K38" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="50"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12">
+      <c r="K40" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="11:12">
+      <c r="K41" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12">
+      <c r="K42" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870491BA-8FA2-4868-98C7-2DF65D85642F}">
   <dimension ref="A3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1896,29 +2815,29 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>43.6</v>
@@ -1930,13 +2849,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>37.6</v>
@@ -1944,18 +2863,18 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0.28000000000000003</v>
@@ -1963,10 +2882,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>35.6</v>
@@ -1979,7 +2898,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I13">
         <v>35.6</v>
@@ -1990,7 +2909,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L14">
         <v>33.6</v>
@@ -2003,7 +2922,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I16">
         <v>36.04</v>
@@ -2011,7 +2930,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BEB20C-62FA-4637-BF6C-7A20A78232F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
     <sheet name="일주일 운동" sheetId="3" r:id="rId2"/>
     <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
   <si>
     <t>11초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,11 +517,63 @@
     <t>Smith Curl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>근평 5점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제5개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개 틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10개틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -874,6 +920,57 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -916,65 +1013,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,7 +1066,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,14 +1356,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R61"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1430,11 +1476,11 @@
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
@@ -1561,8 +1607,8 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -1597,10 +1643,10 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1972,258 +2018,258 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="G37" s="15" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2240,10 +2286,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8795FD5C-62A9-449C-AA3E-5A3B56F56BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2256,25 +2302,25 @@
   <sheetData>
     <row r="4" spans="1:12">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="15" t="s">
         <v>62</v>
       </c>
       <c r="K4" t="s">
@@ -2282,95 +2328,95 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30">
+      <c r="A5" s="16">
         <v>0</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30">
+      <c r="A6" s="16">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30">
+      <c r="A7" s="16">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="K7" s="40" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="K7" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30">
+      <c r="A8" s="16">
         <v>0.125</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30">
+      <c r="A9" s="16">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="K9" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30">
+      <c r="A10" s="16">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="K10" s="41" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="K10" s="27" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2378,83 +2424,83 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="30">
+      <c r="A11" s="16">
         <v>0.25</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="K11" s="42" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="K11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="46" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30">
+      <c r="A12" s="16">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="K12" s="44" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="K12" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="30">
+      <c r="A13" s="16">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="K13" s="44" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="K13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30">
+      <c r="A14" s="16">
         <v>0.375</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="K14" s="46" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="K14" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30">
+      <c r="A15" s="16">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="K15" s="41" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="K15" s="27" t="s">
         <v>78</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2462,17 +2508,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30">
+      <c r="A16" s="16">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="K16" s="41" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="K16" s="27" t="s">
         <v>80</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2480,238 +2526,238 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30">
+      <c r="A17" s="16">
         <v>0.5</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="K17" s="42" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="K17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="46" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="30">
+      <c r="A18" s="16">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="K18" s="46" t="s">
+      <c r="B18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="K18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="47"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="30">
+      <c r="A19" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="K19" s="44" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="K19" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="46" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="30">
+      <c r="A20" s="16">
         <v>0.625</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="K20" s="46" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="K20" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="47"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="30">
+      <c r="A21" s="16">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="30">
+      <c r="A22" s="16">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="K22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="30">
+      <c r="A23" s="16">
         <v>0.75</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="K23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="30">
+      <c r="A24" s="16">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="K24" s="29" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="K24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="30">
+      <c r="A25" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="K25" s="33" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="K25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="30">
+      <c r="A26" s="16">
         <v>0.875</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="K26" s="37" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="K26" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="30">
+      <c r="A27" s="16">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="K27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="31" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="30">
+      <c r="A28" s="16">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="K28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="31" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="30">
+      <c r="A29" s="16">
         <v>1</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="K29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2724,28 +2770,28 @@
       <c r="K34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L34" s="48" t="s">
+      <c r="L34" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="15" t="s">
         <v>108</v>
       </c>
       <c r="L37" s="49" t="s">
@@ -2753,13 +2799,13 @@
       </c>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="37" t="s">
+      <c r="K38" s="23" t="s">
         <v>110</v>
       </c>
       <c r="L38" s="50"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="15" t="s">
         <v>111</v>
       </c>
       <c r="L39" s="49" t="s">
@@ -2767,13 +2813,13 @@
       </c>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="23" t="s">
         <v>112</v>
       </c>
       <c r="L40" s="50"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="29" t="s">
+      <c r="K41" s="15" t="s">
         <v>113</v>
       </c>
       <c r="L41" s="49" t="s">
@@ -2781,19 +2827,19 @@
       </c>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="37" t="s">
+      <c r="K42" s="23" t="s">
         <v>115</v>
       </c>
       <c r="L42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L41:L42"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L41:L42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,11 +2847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870491BA-8FA2-4868-98C7-2DF65D85642F}">
-  <dimension ref="A3:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2928,9 +2974,89 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:12">
       <c r="C17" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA5BC61-A036-4AF4-BFF2-79398099C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
-    <sheet name="일주일 운동" sheetId="3" r:id="rId2"/>
-    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId3"/>
+    <sheet name="일주일 루틴" sheetId="3" r:id="rId2"/>
+    <sheet name="운동루틴" sheetId="4" r:id="rId3"/>
+    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="209">
   <si>
     <t>11초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,11 +576,331 @@
     <t>2.8점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>낮은 유산소 오래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중간 유산소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 유산소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530 러닝 50분정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">500 러닝 50분 강하게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430러닝 또는 400러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프린트 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed &amp; Agility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jogging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knee hug with calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high knee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quads with Calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butt kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 4 with Calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leg Swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side Lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamstring Stratch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rolling Calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heel Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close the gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carioca Knee drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run forward backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sprint 90% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bodyweight exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squat jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse lunge knee drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pogo jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two feet in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral two feen in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ickey shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backwards ickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20yard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 7sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both feet side to side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both feet back and forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single leg side to side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single leg back and forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,5 shuttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cone drill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZigZag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plyometrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broad jumps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single leg Bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward &amp; Back jump to sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zig Zags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backwards side shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward &amp; backwards run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skater jumps to sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyweight exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burpee jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumping lunges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side plank with leg raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box drill to sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square both ways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jockey, switch plant foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side to side switch plant foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -632,7 +959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +1011,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +1219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1358,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,11 +1373,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1066,7 +1426,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,17 +1716,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G37" sqref="G37:J61"/>
     </sheetView>
   </sheetViews>
@@ -2286,11 +2646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A4:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2300,7 +2660,7 @@
     <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
         <v>56</v>
@@ -2323,11 +2683,8 @@
       <c r="H4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="16">
         <v>0</v>
       </c>
@@ -2339,7 +2696,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:8">
       <c r="A6" s="16">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2363,7 +2720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:8">
       <c r="A7" s="16">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -2374,11 +2731,8 @@
       <c r="F7" s="19"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="K7" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="16">
         <v>0.125</v>
       </c>
@@ -2390,7 +2744,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:8">
       <c r="A9" s="16">
         <v>0.16666666666666699</v>
       </c>
@@ -2401,11 +2755,8 @@
       <c r="F9" s="19"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="K9" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="16">
         <v>0.20833333333333301</v>
       </c>
@@ -2416,14 +2767,8 @@
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="K10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="16">
         <v>0.25</v>
       </c>
@@ -2434,14 +2779,8 @@
       <c r="F11" s="19"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="K11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="16">
         <v>0.29166666666666702</v>
       </c>
@@ -2452,12 +2791,8 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="K12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="16">
         <v>0.33333333333333298</v>
       </c>
@@ -2468,12 +2803,8 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="K13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="47"/>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="16">
         <v>0.375</v>
       </c>
@@ -2484,12 +2815,8 @@
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="K14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="16">
         <v>0.41666666666666702</v>
       </c>
@@ -2500,14 +2827,8 @@
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="K15" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="16">
         <v>0.45833333333333298</v>
       </c>
@@ -2518,14 +2839,8 @@
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="K16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="16">
         <v>0.5</v>
       </c>
@@ -2536,14 +2851,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="K17" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="16">
         <v>0.54166666666666696</v>
       </c>
@@ -2553,12 +2862,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="K18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="16">
         <v>0.58333333333333304</v>
       </c>
@@ -2569,14 +2874,8 @@
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="K19" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="16">
         <v>0.625</v>
       </c>
@@ -2587,12 +2886,8 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="K20" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="48"/>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="16">
         <v>0.66666666666666696</v>
       </c>
@@ -2604,7 +2899,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:8">
       <c r="A22" s="16">
         <v>0.70833333333333304</v>
       </c>
@@ -2615,11 +2910,8 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="K22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="16">
         <v>0.75</v>
       </c>
@@ -2630,14 +2922,8 @@
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="K23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="16">
         <v>0.79166666666666696</v>
       </c>
@@ -2648,14 +2934,8 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="K24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="16">
         <v>0.83333333333333304</v>
       </c>
@@ -2666,14 +2946,8 @@
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="K25" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="16">
         <v>0.875</v>
       </c>
@@ -2684,14 +2958,8 @@
       <c r="F26" s="19"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
-      <c r="K26" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="16">
         <v>0.91666666666666696</v>
       </c>
@@ -2702,14 +2970,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
-      <c r="K27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="16">
         <v>0.95833333333333304</v>
       </c>
@@ -2720,14 +2982,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="K28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -2738,119 +2994,662 @@
       <c r="F29" s="23"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-      <c r="K29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A5EDDF-AB1F-4813-8C1F-BD42F35273EA}">
+  <dimension ref="B3:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="55" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="E7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="H7" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="E11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="E12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="H12" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="H14" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="H17" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="E19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="E20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="H23" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="31" t="s">
+      <c r="C28" s="31" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="K30" s="15" t="s">
+      <c r="E28" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="K31" s="23" t="s">
+      <c r="E29" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="11:12">
-      <c r="K33" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="11:12">
-      <c r="K34" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L34" s="31" t="s">
+      <c r="C33" s="31" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="11:12">
-      <c r="K35" s="15" t="s">
+      <c r="E33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="11:12">
-      <c r="K36" s="23" t="s">
+      <c r="E34" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="C35" s="25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="11:12">
-      <c r="K37" s="15" t="s">
+      <c r="E35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="C36" s="46" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="11:12">
-      <c r="K38" s="23" t="s">
+      <c r="E36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="L38" s="50"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="15" t="s">
+      <c r="C37" s="47"/>
+      <c r="E37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="H37" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="C38" s="46" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="11:12">
-      <c r="K40" s="23" t="s">
+      <c r="E38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="50"/>
-    </row>
-    <row r="41" spans="11:12">
-      <c r="K41" s="15" t="s">
+      <c r="C39" s="47"/>
+      <c r="E39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="49" t="s">
+      <c r="C40" s="46" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="11:12">
-      <c r="K42" s="23" t="s">
+      <c r="E40" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="L42" s="50"/>
+      <c r="C41" s="47"/>
+      <c r="E41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA5BC61-A036-4AF4-BFF2-79398099C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
     <sheet name="일주일 루틴" sheetId="3" r:id="rId2"/>
     <sheet name="운동루틴" sheetId="4" r:id="rId3"/>
     <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId4"/>
+    <sheet name="우선순위" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,20 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="209">
-  <si>
-    <t>11초 시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
   <si>
     <t>10초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위험물개정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전술 개정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">행정법 기출 회독 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +152,6 @@
   </si>
   <si>
     <t>33살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4말 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -896,11 +880,86 @@
     <t>30sec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 가족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 개인적 성취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 명예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 취미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 소방위 시험준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써니 인강 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물법 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전술 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써니 문풀 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방공무원법1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제집 5월예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구기1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atg 상체</t>
+  </si>
+  <si>
+    <t>atg하체1 하체2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1219,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,9 +1309,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1316,6 +1372,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1373,19 +1444,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1723,37 +1794,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="12.625" customWidth="1"/>
+    <col min="3" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18">
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>2024</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q3">
         <v>2025</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="16.5" customHeight="1">
@@ -1803,51 +1879,49 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
+      <c r="B7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1858,13 +1932,13 @@
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1882,18 +1956,18 @@
         <v>2026</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1925,7 +1999,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1946,36 +2020,36 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="B12" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1992,7 +2066,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2003,15 +2079,17 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="45"/>
+      <c r="B15" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2055,26 +2133,26 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" s="13" customFormat="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+    <row r="18" spans="2:16" s="12" customFormat="1">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -2126,7 +2204,7 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2145,16 +2223,18 @@
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2166,16 +2246,18 @@
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2187,14 +2269,16 @@
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2206,14 +2290,16 @@
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2242,7 +2328,7 @@
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2261,18 +2347,20 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2284,7 +2372,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2371,268 +2459,269 @@
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
+      <c r="B37" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="G37" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="41"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="41"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="35"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="35"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="37"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="41"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="37"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="37"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="41"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B37:E61"/>
     <mergeCell ref="G37:J61"/>
     <mergeCell ref="B7:D7"/>
@@ -2646,7 +2735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2662,364 +2751,364 @@
   <sheetData>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="D6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H6" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>0.125</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>0.25</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>0.375</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>0.5</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>0.625</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>0.75</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>0.875</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>1</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="32" spans="1:8">
       <c r="C32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
         <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
         <v>131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3030,10 +3119,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A5EDDF-AB1F-4813-8C1F-BD42F35273EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -3041,219 +3130,219 @@
   <cols>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="55" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="35" customWidth="1"/>
     <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="55" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>136</v>
+      <c r="B3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="26" t="s">
-        <v>69</v>
+      <c r="B6" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>185</v>
+        <v>133</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="53" t="s">
-        <v>176</v>
+      <c r="H7" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="27" t="s">
-        <v>71</v>
+      <c r="B9" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>74</v>
+      <c r="B10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="49"/>
+      <c r="B11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="53"/>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="49"/>
+      <c r="B12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="53"/>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="H12" s="53" t="s">
-        <v>182</v>
+      <c r="H12" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="50"/>
+      <c r="B13" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="54"/>
       <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="27" t="s">
-        <v>78</v>
+      <c r="B14" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="H14" s="53" t="s">
-        <v>185</v>
+      <c r="H14" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="27" t="s">
-        <v>80</v>
+      <c r="B15" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="H17" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="E18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="E17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="H17" s="51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="H18" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="54"/>
       <c r="E19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
@@ -3261,11 +3350,11 @@
     </row>
     <row r="20" spans="2:9">
       <c r="E20" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -3273,14 +3362,14 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
@@ -3288,73 +3377,73 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I22" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>92</v>
+      <c r="B23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="H23" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="H23" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>96</v>
+      <c r="B25" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -3362,19 +3451,19 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -3382,13 +3471,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
@@ -3396,78 +3485,78 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>159</v>
+        <v>96</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I28" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>160</v>
+      <c r="B29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>86</v>
+      <c r="B30" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>204</v>
+        <v>162</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="E31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" s="53" t="s">
-        <v>198</v>
+      <c r="H31" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -3475,157 +3564,157 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I33" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>159</v>
+      <c r="B34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>92</v>
+      <c r="B35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>109</v>
+      <c r="B36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="47"/>
+      <c r="B37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="51"/>
       <c r="E37" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="H37" s="53" t="s">
-        <v>203</v>
+      <c r="H37" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>101</v>
+      <c r="B38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="47"/>
+      <c r="B39" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="51"/>
       <c r="E39" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I39" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>175</v>
+      <c r="B40" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="F40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="47"/>
+      <c r="B41" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="51"/>
       <c r="E41" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
@@ -3646,10 +3735,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3660,29 +3749,29 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>43.6</v>
@@ -3694,13 +3783,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>37.6</v>
@@ -3708,18 +3797,18 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>0.28000000000000003</v>
@@ -3727,10 +3816,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>35.6</v>
@@ -3743,7 +3832,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>35.6</v>
@@ -3754,7 +3843,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L14">
         <v>33.6</v>
@@ -3767,7 +3856,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I16">
         <v>36.04</v>
@@ -3775,30 +3864,30 @@
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1">
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>60</v>
@@ -3808,35 +3897,35 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1">
         <v>8.8000000000000007</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>56</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1">
         <v>9.6</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K24">
         <v>52</v>
@@ -3846,13 +3935,13 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>48</v>
@@ -3863,4 +3952,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,10 @@
     <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId4"/>
     <sheet name="우선순위" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">운동루틴!$B$3:$I$41</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="237">
   <si>
     <t>10초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,11 +953,63 @@
     <t>atg하체1 하체2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 기초 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 유연성 밸런스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스피드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 농구력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 축구력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 스트레칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스프린트 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 역도 + 니오버토 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 상체 운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 농구 or 축구 기술연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOT sqaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1387,6 +1437,27 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1423,12 +1494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,21 +1508,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,7 +1547,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1797,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1883,34 +1933,34 @@
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="56" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="59"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
@@ -2020,27 +2070,27 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="49"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
         <v>22</v>
@@ -2079,10 +2129,10 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2466,258 +2516,258 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="G37" s="36" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="G37" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="41"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="41"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="48"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="48"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="48"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="48"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="41"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="48"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="44"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="51"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2736,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H34"/>
+  <dimension ref="A4:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2749,7 +2799,7 @@
     <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
         <v>52</v>
@@ -2772,8 +2822,11 @@
       <c r="H4" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="15">
         <v>0</v>
       </c>
@@ -2784,8 +2837,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="15">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2808,8 +2864,11 @@
       <c r="H6" s="20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="15">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -2820,8 +2879,11 @@
       <c r="F7" s="18"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="15">
         <v>0.125</v>
       </c>
@@ -2832,8 +2894,11 @@
       <c r="F8" s="18"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="15">
         <v>0.16666666666666699</v>
       </c>
@@ -2844,8 +2909,11 @@
       <c r="F9" s="18"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="15">
         <v>0.20833333333333301</v>
       </c>
@@ -2857,7 +2925,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" s="15">
         <v>0.25</v>
       </c>
@@ -2869,7 +2937,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="15">
         <v>0.29166666666666702</v>
       </c>
@@ -2880,8 +2948,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="15">
         <v>0.33333333333333298</v>
       </c>
@@ -2892,8 +2963,11 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="15">
         <v>0.375</v>
       </c>
@@ -2904,8 +2978,11 @@
       <c r="F14" s="19"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="15">
         <v>0.41666666666666702</v>
       </c>
@@ -2916,8 +2993,11 @@
       <c r="F15" s="19"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="15">
         <v>0.45833333333333298</v>
       </c>
@@ -2928,8 +3008,11 @@
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="15">
         <v>0.5</v>
       </c>
@@ -2940,8 +3023,11 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="15">
         <v>0.54166666666666696</v>
       </c>
@@ -2952,7 +3038,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:11">
       <c r="A19" s="15">
         <v>0.58333333333333304</v>
       </c>
@@ -2964,7 +3050,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:11">
       <c r="A20" s="15">
         <v>0.625</v>
       </c>
@@ -2976,7 +3062,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:11">
       <c r="A21" s="15">
         <v>0.66666666666666696</v>
       </c>
@@ -2988,7 +3074,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:11">
       <c r="A22" s="15">
         <v>0.70833333333333304</v>
       </c>
@@ -3000,7 +3086,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:11">
       <c r="A23" s="15">
         <v>0.75</v>
       </c>
@@ -3012,7 +3098,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:11">
       <c r="A24" s="15">
         <v>0.79166666666666696</v>
       </c>
@@ -3024,7 +3110,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:11">
       <c r="A25" s="15">
         <v>0.83333333333333304</v>
       </c>
@@ -3036,7 +3122,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:11">
       <c r="A26" s="15">
         <v>0.875</v>
       </c>
@@ -3048,7 +3134,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:11">
       <c r="A27" s="15">
         <v>0.91666666666666696</v>
       </c>
@@ -3060,7 +3146,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:11">
       <c r="A28" s="15">
         <v>0.95833333333333304</v>
       </c>
@@ -3072,7 +3158,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:11">
       <c r="A29" s="15">
         <v>1</v>
       </c>
@@ -3084,7 +3170,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:11">
       <c r="C32" t="s">
         <v>125</v>
       </c>
@@ -3120,10 +3206,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J41"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3135,9 +3224,10 @@
     <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="6.875" style="35" customWidth="1"/>
+    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:13">
       <c r="B3" s="32" t="s">
         <v>64</v>
       </c>
@@ -3145,7 +3235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:13">
       <c r="B6" s="25" t="s">
         <v>65</v>
       </c>
@@ -3155,8 +3245,11 @@
       <c r="H6" s="34" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="E7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3167,8 +3260,11 @@
       <c r="I7" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
         <v>66</v>
       </c>
@@ -3180,8 +3276,11 @@
         <v>174</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="M8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="26" t="s">
         <v>67</v>
       </c>
@@ -3196,12 +3295,15 @@
         <v>175</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="57" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3212,12 +3314,15 @@
         <v>176</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="M10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="58"/>
       <c r="E11" s="1" t="s">
         <v>138</v>
       </c>
@@ -3226,12 +3331,15 @@
         <v>177</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="M11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="58"/>
       <c r="E12" s="1" t="s">
         <v>139</v>
       </c>
@@ -3242,12 +3350,15 @@
       <c r="I12" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="M12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="59"/>
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3257,7 +3368,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:13">
       <c r="B14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3275,7 +3386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:13">
       <c r="B15" s="26" t="s">
         <v>76</v>
       </c>
@@ -3291,11 +3402,11 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:13">
       <c r="B16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="57" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3303,11 +3414,11 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:13">
       <c r="B17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="59"/>
       <c r="E17" s="1" t="s">
         <v>144</v>
       </c>
@@ -3315,12 +3426,15 @@
       <c r="H17" s="31" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="M17" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="57" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3331,12 +3445,15 @@
         <v>183</v>
       </c>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="M18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="59"/>
       <c r="E19" s="1" t="s">
         <v>146</v>
       </c>
@@ -3347,8 +3464,11 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="M19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="E20" s="1" t="s">
         <v>147</v>
       </c>
@@ -3359,8 +3479,11 @@
       <c r="I20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="M20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -3375,7 +3498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
@@ -3393,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:13">
       <c r="B23" s="14" t="s">
         <v>87</v>
       </c>
@@ -3409,7 +3532,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:13">
       <c r="B24" s="18" t="s">
         <v>89</v>
       </c>
@@ -3429,7 +3552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:13">
       <c r="B25" s="22" t="s">
         <v>91</v>
       </c>
@@ -3449,7 +3572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:13">
       <c r="B26" s="1" t="s">
         <v>93</v>
       </c>
@@ -3469,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:13">
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
@@ -3483,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
         <v>96</v>
       </c>
@@ -3500,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:13">
       <c r="B29" s="14" t="s">
         <v>98</v>
       </c>
@@ -3514,7 +3637,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:13">
       <c r="B30" s="22" t="s">
         <v>99</v>
       </c>
@@ -3531,7 +3654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:13">
       <c r="E31" s="1" t="s">
         <v>158</v>
       </c>
@@ -3545,7 +3668,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:13">
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
@@ -3624,7 +3747,7 @@
       <c r="B36" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="55" t="s">
         <v>105</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3640,7 +3763,7 @@
       <c r="B37" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="56"/>
       <c r="E37" s="1" t="s">
         <v>167</v>
       </c>
@@ -3654,7 +3777,7 @@
       <c r="B38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="55" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3672,7 +3795,7 @@
       <c r="B39" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="56"/>
       <c r="E39" s="1" t="s">
         <v>169</v>
       </c>
@@ -3688,7 +3811,7 @@
       <c r="B40" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="55" t="s">
         <v>110</v>
       </c>
       <c r="E40" s="33" t="s">
@@ -3706,7 +3829,7 @@
       <c r="B41" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="56"/>
       <c r="E41" s="1" t="s">
         <v>170</v>
       </c>
@@ -3730,7 +3853,9 @@
     <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3738,7 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">운동루틴!$B$3:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="259">
   <si>
     <t>10초 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>농구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,15 +296,631 @@
     <t>토</t>
   </si>
   <si>
-    <t>ATG 전면 하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATG 후면 하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATG 상체</t>
+    <t>ATG Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATG-Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞쪽 다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backward Sled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 25rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHL Calf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOT Calf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poliquin Step Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom 1/4 split squat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 20rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full sqaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5set 5rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optional KOT sqaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 12rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rverse Nordic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Couch Stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Pancake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤쪽다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Sled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100m </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hip Flexors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 20rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 15rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 10rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seated Goodmorning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full-stretch RDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4set 8rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nordic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 5rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jefferson Curl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piriformis Stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">forward Backward sled </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5sec Eccentric Trap-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band Pullapart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Soulder Press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 8rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dip or PU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chin or One arm pull down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set 12rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smith Curl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근평 5점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제5개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개 틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10개틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮은 유산소 오래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중간 유산소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 유산소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530 러닝 50분정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">500 러닝 50분 강하게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430러닝 또는 400러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프린트 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed &amp; Agility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jogging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knee hug with calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high knee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quads with Calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butt kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 4 with Calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leg Swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side Lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamstring Stratch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rolling Calf raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heel Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close the gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carioca Knee drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run forward backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sprint 90% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bodyweight exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squat jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse lunge knee drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pogo jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two feet in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral two feen in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ickey shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backwards ickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20yard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2set 7sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both feet side to side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both feet back and forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single leg side to side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single leg back and forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,5 shuttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cone drill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZigZag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plyometrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broad jumps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single leg Bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward &amp; Back jump to sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zig Zags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backwards side shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward &amp; backwards run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skater jumps to sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyweight exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burpee jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumping lunges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side plank with leg raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box drill to sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square both ways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jockey, switch plant foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side to side switch plant foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 가족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 개인적 성취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 명예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 취미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 소방위 시험준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써니 인강 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물법 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전술 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써니 문풀 1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방공무원법1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제집 5월예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구기1개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -311,627 +928,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>축구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATG Program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATG-Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앞쪽 다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backward Sled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2set 25rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FHL Calf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOT Calf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poliquin Step Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottom 1/4 split squat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2set 20rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full sqaut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5set 5rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optional KOT sqaut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2set 12rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rverse Nordic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Couch Stretch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2set 60s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standing Pancake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤쪽다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forward Sled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">100m </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hip Flexors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set 20rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back Extension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set 15rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set 10rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seated Goodmorning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full-stretch RDL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4set 8rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nordic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set 5rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jefferson Curl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Piriformis Stretch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">forward Backward sled </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5sec Eccentric Trap-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Band Pullapart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB Soulder Press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set 8rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>External Rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dip or PU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chin or One arm pull down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pull over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set 12rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smith Curl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근평 5점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2년차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3년차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4년차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5년차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제5개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5개 틀림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10개틀림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15개틀림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.8점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮은 유산소 오래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">중간 유산소 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 유산소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>530 러닝 50분정도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">500 러닝 50분 강하게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430러닝 또는 400러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프린트 훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed &amp; Agility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸풀기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jogging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knee hug with calf raise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high knee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quads with Calf raise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Butt kick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure 4 with Calf raise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leg Swing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back Lunge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side Lunge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamstring Stratch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rolling Calf raise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heel Walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open the gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close the gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side shuffle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carioca Knee drive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run forward backward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprint 80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sprint 90% </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed Ladder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bodyweight exercise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>squat jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse lunge knee drive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side lunge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pogo jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two feet in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lateral two feen in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ickey shuffle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backwards ickey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single leg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20yard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2set 7sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both feet side to side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both feet back and forth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single leg side to side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single leg back and forth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,5 shuttle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1min recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3cone drill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZigZag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plyometrics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broad jumps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single leg Bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bounding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forward &amp; Back jump to sprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zig Zags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>running through</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side shuffle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backwards side shuffle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward &amp; backwards run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skater jumps to sprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bodyweight exercise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burpee jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jumping lunges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side plank with leg raise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box drill to sprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>square both ways</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jockey, switch plant foot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side to side switch plant foot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 가족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 개인적 성취</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 명예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 취미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 소방위 시험준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>써니 인강 1회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험물법 1회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전술 1회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>써니 문풀 1회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방공무원법1회독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제집 5월예정</t>
+    <t>atg 상체</t>
+  </si>
+  <si>
+    <t>atg하체1 하체2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기초 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 유연성 밸런스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스피드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 농구력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 축구력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 스트레칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스프린트 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 역도 + 니오버토 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 상체 운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 농구 or 축구 기술연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOT sqaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체전면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체후면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,77 +1007,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구기1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atg 상체</t>
-  </si>
-  <si>
-    <t>atg하체1 하체2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 기초 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 유연성 밸런스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 농구력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 축구력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 스트레칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 스프린트 훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 역도 + 니오버토 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 상체 운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 농구 or 축구 기술연습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOT sqaut</t>
+    <t>턱푸딥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물구나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추감기+악력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스퀏데드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스내치 or 클린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨 프래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨 YWTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 이두 늘리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 삼두 늘리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노르딕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리버스 노르딕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무릎 당기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전신 스트레칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카포에라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카프레이즈 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카프레이즈 뒤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1547,7 +1640,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F677CB95-1C78-4FCF-A793-6F0CC427F5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1945,7 +2038,7 @@
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -1967,10 +2060,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2098,7 +2191,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2117,7 +2210,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2138,7 +2231,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2283,7 +2376,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2306,7 +2399,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2327,7 +2420,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2348,7 +2441,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2409,7 +2502,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2786,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K34"/>
+  <dimension ref="A4:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2802,28 +2895,28 @@
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="K4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2838,7 +2931,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="K5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2846,26 +2939,14 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="K6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2880,7 +2961,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2895,7 +2976,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2910,7 +2991,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="K9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2949,7 +3030,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2964,7 +3045,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2979,7 +3060,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2994,7 +3075,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="K15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3009,7 +3090,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="K16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3024,7 +3105,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="K17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3172,29 +3253,140 @@
     </row>
     <row r="32" spans="1:11">
       <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="D37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="D41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="D43" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="D44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="F46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="F48" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3403,7 @@
   </sheetPr>
   <dimension ref="B3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -3229,270 +3421,270 @@
   <sheetData>
     <row r="3" spans="2:13">
       <c r="B3" s="32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="58"/>
       <c r="E11" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" s="58"/>
       <c r="E12" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12" s="33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" s="59"/>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1"/>
       <c r="H14" s="33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C17" s="59"/>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F17" s="1"/>
       <c r="H17" s="31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1"/>
       <c r="H18" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C19" s="59"/>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
@@ -3500,17 +3692,17 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1">
         <v>5</v>
@@ -3518,35 +3710,35 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
@@ -3554,19 +3746,19 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -3574,19 +3766,19 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -3594,13 +3786,13 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
@@ -3608,16 +3800,16 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I28" s="1">
         <v>5</v>
@@ -3625,47 +3817,47 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="E31" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -3673,13 +3865,13 @@
         <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -3687,19 +3879,19 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I33" s="1">
         <v>20</v>
@@ -3707,85 +3899,85 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C37" s="56"/>
       <c r="E37" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F37" s="1"/>
       <c r="H37" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
@@ -3793,15 +3985,15 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C39" s="56"/>
       <c r="E39" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I39" s="1">
         <v>3</v>
@@ -3809,17 +4001,17 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
@@ -3827,17 +4019,17 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C41" s="56"/>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
@@ -3994,25 +4186,25 @@
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1">
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K22">
         <v>60</v>
@@ -4022,35 +4214,35 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1">
         <v>8.8000000000000007</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>56</v>
       </c>
       <c r="L23" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1">
         <v>9.6</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>52</v>
@@ -4060,13 +4252,13 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K25">
         <v>48</v>
@@ -4091,42 +4283,42 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9364BCBB-A87B-4CDF-B055-19E3DD765B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
-    <sheet name="일주일 루틴" sheetId="3" r:id="rId2"/>
-    <sheet name="운동루틴" sheetId="4" r:id="rId3"/>
-    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId4"/>
-    <sheet name="우선순위" sheetId="5" r:id="rId5"/>
+    <sheet name="모의고사" sheetId="6" r:id="rId2"/>
+    <sheet name="일주일 루틴" sheetId="3" r:id="rId3"/>
+    <sheet name="운동루틴" sheetId="4" r:id="rId4"/>
+    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId5"/>
+    <sheet name="우선순위" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">운동루틴!$B$3:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">운동루틴!$B$3:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,11 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="259">
-  <si>
-    <t>10초 시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="272">
   <si>
     <t>집</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,26 +136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위험물기능장 + 소방시설관리사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방기술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>31살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>승진시험 계산기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,42 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8~10월
-+ 행정법 기초(이론, 기출 3회독 이상)
-+ 화재감식기사  실기 -&gt; 여행으로 취소됨 워드로 대체
-+ 행정법 기출문제 1회독 여행가기전까지 완성하고 가자
-11월 ~2월 
-+ 한국실용글쓰기 770점 11월 초중순 
-+ 행정법 기출 회독수 10회독 이상
-+ 위험물&amp;소방기본법(이론, 기출 3회독 이상)
-3월~5월
-+ 전술 개정본으로 정리
-+ 위험물&amp;소방기본법 회독 10회독 이상
-+ 행정법 기출 회독수 20회독 목표
-6월~7월
-+ 전술책은 다보면 다른 전술책으로 지식 쌓기
-+ 위험물 &amp; 소방기본법 -&gt; 다른 책사서 회독
-+ 행정법 -&gt; 마찬가지로 다른책 사서 회독
-8월~9월
-+ 모의고사 구매해서 약점체크 오지게 때리기
-10월
-+ 피날레</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월
-+ 발목, 무릎 재활
-+ 생각보다 재활이 금방됨 8월중순 복귀 가능
-+ 구기종목시 무리한 플레이 하지말고 정말 이지한 경우만 폭발력 사용
-+ATG 프로그램 으로 하체전면 하체후면 상체 프로그램 돌리고 / 러닝 + 축구농구연습 / animal flow 연마
-9월
-+ 달리기 위주 농구게임하면 쉬어야 함. 러닝위주로 체지방 빼면서 기능성 몸만들기로 계속 준비하자 10월 농구대회까지 기능성 맨몸운동 + 러닝
-10월~11월 초 여행 -&gt; 몸 푹 쉬기
-11월 5일부터 -&gt; ATG pro 루틴 + 빅머슬7 + 러닝
-12월 역도 동호회 일주일에 1번씩 실시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1096,13 +1042,122 @@
   </si>
   <si>
     <t>카프레이즈 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9. 모의고사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방공무원법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9모의고사 반성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소공법 하나도 이해가 안되는 느낌 문제가 안보임. 기출회독수를 빨리 늘려야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물법 전체적으로 잡혔는데 세세하게 암기가 안된 느낌 더 회독수를 늘리면서 계속 봐야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전술 까먹어서 그런지 또 잘 안보임 다시 회독수 늘리면서 세세하게 공부해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심특약 잡고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정법 기출 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소공법 회사에서 보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소공법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">핵심집약 끝내면
+행정법총론 기출문제
+오답노트
+핵심집약+오답노트 복습 하면서 행정법 각론 기출풀어보자 .
+만약에 안되면 행정법 각론 개념 들어야 함
+각론 개념 듣고 각론 기출 풀고
+총론 기출 -&gt; 각론 기출 -&gt; 계속 회독 하루에 다볼정도로
+개인정보 보호 특강
+행정기본법 특강
+최신판례특강
+고난도 대비 시험 전 필수정리 특강
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재까지 캠버스 회독 끝내고 정리했지
+캠버스 -&gt; 다인 -&gt; MJ 로 기출 회독 1바퀴 
+중앙소방학교 교재 정독후 중요한거 정리
+캠 -&gt; 다 -&gt; MJ 회독 하면서 중앙소방학교 교재 정리
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시대고시 모의고사 있고
+캠버스 -&gt; 다인 -&gt; MJ 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠버스 3회독
+캠버스 -&gt; 다인 -&gt; MJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 상체
+러닝 3km -&gt; 턱푸딥 -&gt; 회복 러닝 3km
+2. 하체
+스퀏 + 데드
+3. 역도
+스내치
+클린
+4. 장거리 러닝(2주마다)
+5. 템포러닝
+6. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심집약 -&gt; 총론 기출
+캠버스 소공법 다시 1회독
+다인 전술 1회독
+위험물법은 적당히 계속 복습 + 시대고시 모의고사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1176,12 +1231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1231,6 +1280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,37 +1486,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -1470,7 +1510,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -1479,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1491,116 +1531,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1937,11 +1983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1953,60 +1999,56 @@
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18">
-      <c r="G3" s="13">
+    <row r="3" spans="2:16">
+      <c r="G3" s="8">
         <v>2024</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3">
-        <v>2025</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B5" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="16.5" customHeight="1">
+      <c r="B5" s="48">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="48">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="48">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="48">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="48">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="48">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="48">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="48">
         <v>3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="48">
         <v>4</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="48">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="48">
         <v>6</v>
       </c>
       <c r="M5" s="2">
@@ -2021,281 +2063,256 @@
       <c r="P5" s="2">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54"/>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="E7" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="1" t="s">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="D8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8">
-        <v>2026</v>
-      </c>
-      <c r="R8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="D9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+    <row r="10" spans="2:16">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="40"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="40" t="s">
+    <row r="12" spans="2:16">
+      <c r="B12" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="52"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:16" s="12" customFormat="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="8" t="s">
-        <v>13</v>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -2346,530 +2363,1002 @@
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>13</v>
+      <c r="L36" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="G37" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
+      <c r="B37" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="L37" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="34"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="37"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="37"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="48"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="37"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="37"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="48"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="37"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="48"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="48"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="37"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="48"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="48"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="48"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="48"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="48"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="48"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="48"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="48"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="48"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="51"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="51"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="37"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="37"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="37"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="37"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="37"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="37"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="37"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="37"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="37"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="37"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="37"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="37"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="40"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B64" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="G64" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
+      <c r="L64" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="34"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="35"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="37"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="37"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="37"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="35"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="37"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="37"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="37"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="35"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="37"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="37"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="37"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="35"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="37"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="37"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="37"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="35"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="37"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="37"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="37"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="35"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="37"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="37"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="37"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="35"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="37"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="37"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="37"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="35"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="37"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="37"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="37"/>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="35"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="37"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="37"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="37"/>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="35"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="37"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="37"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="37"/>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="35"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="37"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="37"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="37"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="35"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="37"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="37"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="37"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="35"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="37"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="37"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="37"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="35"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="37"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="37"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="37"/>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="35"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="37"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="37"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="37"/>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="35"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="37"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="37"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="37"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="35"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="37"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="37"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="37"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="35"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="37"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="37"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="37"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="35"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="37"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="37"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="37"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="35"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="37"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="37"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="37"/>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="35"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="37"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="37"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="37"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="35"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="37"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="37"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="37"/>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="35"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="37"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="37"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="37"/>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="38"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="40"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B64:E88"/>
+    <mergeCell ref="G64:J88"/>
+    <mergeCell ref="L64:O88"/>
     <mergeCell ref="B37:E61"/>
     <mergeCell ref="G37:J61"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L37:O61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2878,11 +3367,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A3985-7FBE-4B65-9449-6EFEB078AA3E}">
+  <dimension ref="B2:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2894,499 +3671,499 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>57</v>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="K4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="K5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="K6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="K7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="K8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="K9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="10">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="10">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="K12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="K13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="K5" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="K14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="K15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="15">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="K6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="K7" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="10">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="K16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="K8" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="K17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="15">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="K9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="15">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="K12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="K13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="K14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="15">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="K15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="K16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="K17" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="15">
+      <c r="A18" s="10">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="15">
+      <c r="A19" s="10">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15">
+      <c r="A20" s="10">
         <v>0.625</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15">
+      <c r="A21" s="10">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15">
+      <c r="A22" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="15">
+      <c r="A23" s="10">
         <v>0.75</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="15">
+      <c r="A24" s="10">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15">
+      <c r="A25" s="10">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15">
+      <c r="A26" s="10">
         <v>0.875</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="15">
+      <c r="A27" s="10">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="15">
+      <c r="A28" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="15">
+      <c r="A29" s="10">
         <v>1</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="32" spans="1:11">
       <c r="C32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="D37" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="D41" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="D42" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="D43" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="D44" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="F45" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="F46" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="F47" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="F48" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3396,8 +4173,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3411,280 +4188,280 @@
   <cols>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="35" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="30" customWidth="1"/>
     <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="30" customWidth="1"/>
     <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
-      <c r="B3" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>126</v>
+      <c r="B3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="25" t="s">
-        <v>59</v>
+      <c r="B6" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>175</v>
+        <v>120</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="33" t="s">
-        <v>166</v>
+      <c r="H7" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="26" t="s">
-        <v>61</v>
+      <c r="B9" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>64</v>
+      <c r="B10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="58"/>
+      <c r="B11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="44"/>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="58"/>
+      <c r="B12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="44"/>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="H12" s="33" t="s">
-        <v>172</v>
+      <c r="H12" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="59"/>
+      <c r="B13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="45"/>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="26" t="s">
-        <v>68</v>
+      <c r="B14" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="H14" s="33" t="s">
-        <v>175</v>
+      <c r="H14" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="26" t="s">
-        <v>70</v>
+      <c r="B15" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>73</v>
+      <c r="B16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="59"/>
+      <c r="B17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="45"/>
       <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="H17" s="31" t="s">
-        <v>176</v>
+      <c r="H17" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>76</v>
+      <c r="B18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="H18" s="33" t="s">
-        <v>177</v>
+      <c r="H18" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="I18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="59"/>
+      <c r="B19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="E20" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
@@ -3692,73 +4469,73 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I22" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>82</v>
+      <c r="B23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="H23" s="33" t="s">
-        <v>182</v>
+      <c r="H23" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>84</v>
+      <c r="B24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>86</v>
+      <c r="B25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -3766,19 +4543,19 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -3786,13 +4563,13 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
@@ -3800,78 +4577,78 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>149</v>
+        <v>83</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I28" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>150</v>
+      <c r="B29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>76</v>
+      <c r="B30" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>194</v>
+        <v>149</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="E31" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>188</v>
+        <v>149</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -3879,157 +4656,157 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I33" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>149</v>
+      <c r="B34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>82</v>
+      <c r="B35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>99</v>
+      <c r="B36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="56"/>
+      <c r="B37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="42"/>
       <c r="E37" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="H37" s="33" t="s">
-        <v>193</v>
+      <c r="H37" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>91</v>
+      <c r="B38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="56"/>
+      <c r="B39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="42"/>
       <c r="E39" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I39" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>165</v>
+      <c r="B40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="F40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="56"/>
+      <c r="B41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="42"/>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
@@ -4051,8 +4828,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4066,29 +4843,29 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>43.6</v>
@@ -4100,13 +4877,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
       </c>
       <c r="H7">
         <v>37.6</v>
@@ -4114,18 +4891,18 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0.28000000000000003</v>
@@ -4133,10 +4910,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>35.6</v>
@@ -4149,7 +4926,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I13">
         <v>35.6</v>
@@ -4160,7 +4937,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>33.6</v>
@@ -4173,7 +4950,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <v>36.04</v>
@@ -4181,30 +4958,30 @@
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F22" s="1">
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K22">
         <v>60</v>
@@ -4214,35 +4991,35 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F23" s="1">
         <v>8.8000000000000007</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>56</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1">
         <v>9.6</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K24">
         <v>52</v>
@@ -4252,13 +5029,13 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K25">
         <v>48</v>
@@ -4271,8 +5048,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4283,42 +5060,42 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/시험계획(2023.7 ~ 2024.10).xlsx
+++ b/시험계획(2023.7 ~ 2024.10).xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9364BCBB-A87B-4CDF-B055-19E3DD765B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D5F8B-4E56-48ED-B525-1F78315E20AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
-    <sheet name="모의고사" sheetId="6" r:id="rId2"/>
-    <sheet name="일주일 루틴" sheetId="3" r:id="rId3"/>
-    <sheet name="운동루틴" sheetId="4" r:id="rId4"/>
-    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId5"/>
+    <sheet name="7,8,9계획" sheetId="7" r:id="rId2"/>
+    <sheet name="모의고사" sheetId="6" r:id="rId3"/>
+    <sheet name="일주일 루틴" sheetId="3" r:id="rId4"/>
+    <sheet name="운동루틴" sheetId="4" r:id="rId5"/>
     <sheet name="우선순위" sheetId="5" r:id="rId6"/>
+    <sheet name="승진시험 점수 비교" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">운동루틴!$B$3:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">운동루틴!$B$3:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="301">
   <si>
     <t>집</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1151,6 +1152,98 @@
 캠버스 소공법 다시 1회독
 다인 전술 1회독
 위험물법은 적당히 계속 복습 + 시대고시 모의고사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회독</t>
+  </si>
+  <si>
+    <t>3회독</t>
+  </si>
+  <si>
+    <t>4회독</t>
+  </si>
+  <si>
+    <t>5회독</t>
+  </si>
+  <si>
+    <t>6회독</t>
+  </si>
+  <si>
+    <t>7회독</t>
+  </si>
+  <si>
+    <t>8회독</t>
+  </si>
+  <si>
+    <t>9회독</t>
+  </si>
+  <si>
+    <t>10회독</t>
+  </si>
+  <si>
+    <t>11회독</t>
+  </si>
+  <si>
+    <t>12회독</t>
+  </si>
+  <si>
+    <t>13회독</t>
+  </si>
+  <si>
+    <t>14회독</t>
+  </si>
+  <si>
+    <t>15회독</t>
+  </si>
+  <si>
+    <t>16회독</t>
+  </si>
+  <si>
+    <t>17회독</t>
+  </si>
+  <si>
+    <t>18회독</t>
+  </si>
+  <si>
+    <t>19회독</t>
+  </si>
+  <si>
+    <t>20회독</t>
+  </si>
+  <si>
+    <t>21회독</t>
+  </si>
+  <si>
+    <t>22회독</t>
+  </si>
+  <si>
+    <t>23회독</t>
+  </si>
+  <si>
+    <t>24회독</t>
+  </si>
+  <si>
+    <t>25회독</t>
+  </si>
+  <si>
+    <t>7월22일쯤 끝냄 핵심집약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~6일걸림 캠버스 기본서문풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~6일 걸린듯 캠버스 기출예상+시대고시 기출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일정도 걸림 캠버스 기출만</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,7 +1309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1286,6 +1379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,7 +1575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1573,6 +1672,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1615,38 +1738,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1986,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2018,40 +2141,40 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B5" s="48">
+      <c r="B5" s="34">
         <v>8</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="34">
         <v>9</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="34">
         <v>10</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="34">
         <v>11</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="34">
         <v>12</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="34">
         <v>1</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="34">
         <v>2</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="34">
         <v>3</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="34">
         <v>4</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="34">
         <v>5</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="34">
         <v>6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="54">
         <v>7</v>
       </c>
       <c r="N5" s="2">
@@ -2065,47 +2188,47 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="31"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="55"/>
       <c r="N6" s="31"/>
       <c r="O6" s="25"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="1" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="54" t="s">
         <v>261</v>
       </c>
       <c r="N7" s="1"/>
@@ -2113,24 +2236,24 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="1" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="54" t="s">
         <v>262</v>
       </c>
       <c r="N8" s="1"/>
@@ -2138,24 +2261,24 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="1" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="54" t="s">
         <v>263</v>
       </c>
       <c r="N9" s="1"/>
@@ -2163,149 +2286,149 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="1"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="1"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="52"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="5"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="5"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="5"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="54"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="5"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="54"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -2629,360 +2752,360 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="32" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="G37" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="L37" s="32" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="L37" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="34"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="42"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="45"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="37"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="45"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="37"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="45"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="45"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="37"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="37"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="37"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="37"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="37"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="45"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="45"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="37"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="45"/>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="37"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="45"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="37"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="45"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="37"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="45"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="45"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="37"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="45"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="37"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="45"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="45"/>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="37"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="45"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="45"/>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="37"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="45"/>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="35"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="37"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="45"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="45"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="35"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="37"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="37"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="45"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="45"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="37"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="37"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="45"/>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="37"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="37"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="45"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="45"/>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="40"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="48"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="48"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="48"/>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" s="7" t="s">
@@ -2996,360 +3119,360 @@
       </c>
     </row>
     <row r="64" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="G64" s="32" t="s">
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="G64" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="34"/>
-      <c r="L64" s="32" t="s">
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="42"/>
+      <c r="L64" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="34"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="42"/>
     </row>
     <row r="65" spans="2:15">
-      <c r="B65" s="35"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="37"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="37"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="37"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="45"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="45"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="35"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="37"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="37"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="37"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="45"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="45"/>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="35"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="37"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="37"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="37"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="45"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="45"/>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" s="35"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="37"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="37"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="37"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="45"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="45"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="45"/>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="35"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="37"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="37"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="37"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="45"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="45"/>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="35"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="37"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="37"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="37"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="45"/>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" s="35"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="37"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="37"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="37"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="45"/>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="35"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="37"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="37"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="37"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="45"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="45"/>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="35"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="37"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="37"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="37"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="45"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="45"/>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="35"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="37"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="37"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="37"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="45"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="45"/>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="35"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="37"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="37"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="37"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="45"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="45"/>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="35"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="37"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="37"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="37"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="45"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="45"/>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="35"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="37"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="37"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="37"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="45"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="45"/>
     </row>
     <row r="78" spans="2:15">
-      <c r="B78" s="35"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="37"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="37"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="37"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="45"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="45"/>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" s="35"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="37"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="37"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="37"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="45"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="45"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="45"/>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="35"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="37"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="37"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="37"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="45"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="45"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="45"/>
     </row>
     <row r="81" spans="2:15">
-      <c r="B81" s="35"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="37"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="37"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="37"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="45"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="45"/>
     </row>
     <row r="82" spans="2:15">
-      <c r="B82" s="35"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="37"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="37"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="37"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="45"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="45"/>
     </row>
     <row r="83" spans="2:15">
-      <c r="B83" s="35"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="37"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="37"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="37"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="45"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="45"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="35"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="37"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="37"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="37"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="45"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="45"/>
     </row>
     <row r="85" spans="2:15">
-      <c r="B85" s="35"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="37"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="37"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="37"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="45"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="45"/>
     </row>
     <row r="86" spans="2:15">
-      <c r="B86" s="35"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="37"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="37"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="37"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="45"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="45"/>
     </row>
     <row r="87" spans="2:15">
-      <c r="B87" s="35"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="37"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="37"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="37"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="45"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="45"/>
     </row>
     <row r="88" spans="2:15">
-      <c r="B88" s="38"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="40"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="40"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="48"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="48"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3367,6 +3490,674 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3F260-E3FF-45E1-A012-C4AF78084F40}">
+  <dimension ref="A3:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17">
+      <c r="B3" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="61"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="61"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="61"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="100">
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A3985-7FBE-4B65-9449-6EFEB078AA3E}">
   <dimension ref="B2:H35"/>
   <sheetViews>
@@ -3654,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:K48"/>
   <sheetViews>
@@ -4173,7 +4964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4272,7 +5063,7 @@
       <c r="B10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="51" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4291,7 +5082,7 @@
       <c r="B11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="52"/>
       <c r="E11" s="1" t="s">
         <v>125</v>
       </c>
@@ -4308,7 +5099,7 @@
       <c r="B12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="52"/>
       <c r="E12" s="1" t="s">
         <v>126</v>
       </c>
@@ -4327,7 +5118,7 @@
       <c r="B13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="53"/>
       <c r="E13" s="1" t="s">
         <v>127</v>
       </c>
@@ -4375,7 +5166,7 @@
       <c r="B16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="51" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4387,7 +5178,7 @@
       <c r="B17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="53"/>
       <c r="E17" s="1" t="s">
         <v>131</v>
       </c>
@@ -4403,7 +5194,7 @@
       <c r="B18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="51" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4422,7 +5213,7 @@
       <c r="B19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="53"/>
       <c r="E19" s="1" t="s">
         <v>133</v>
       </c>
@@ -4716,7 +5507,7 @@
       <c r="B36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="49" t="s">
         <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4732,7 +5523,7 @@
       <c r="B37" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="42"/>
+      <c r="C37" s="50"/>
       <c r="E37" s="1" t="s">
         <v>154</v>
       </c>
@@ -4746,7 +5537,7 @@
       <c r="B38" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="49" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4764,7 +5555,7 @@
       <c r="B39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="50"/>
       <c r="E39" s="1" t="s">
         <v>156</v>
       </c>
@@ -4780,7 +5571,7 @@
       <c r="B40" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="49" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="28" t="s">
@@ -4798,7 +5589,7 @@
       <c r="B41" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="50"/>
       <c r="E41" s="1" t="s">
         <v>157</v>
       </c>
@@ -4828,7 +5619,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B4:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:L25"/>
   <sheetViews>
@@ -5046,60 +5893,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B4:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>